--- a/RDC.F.xlsx
+++ b/RDC.F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82AF45-ED24-4DF8-A2F4-D783EFB5893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D2D33-95EA-4C98-B552-72BE6BE89B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{5523CAF6-C60C-4F2C-8205-704482A319E3}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{5523CAF6-C60C-4F2C-8205-704482A319E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DD792-8C03-419B-ABE3-CBCAE966C8BA}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD3C0A2-09F8-4F83-BBEC-F9E8913EDB9F}">
   <dimension ref="A1:BG376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/RDC.F.xlsx
+++ b/RDC.F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D2D33-95EA-4C98-B552-72BE6BE89B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1977C7D-D02C-4EFC-8ABC-02C02A29CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{5523CAF6-C60C-4F2C-8205-704482A319E3}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>99.2</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>1995.0458208000002</v>
+        <v>1574.7186267</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>2129.0778208000002</v>
+        <v>1708.7506267000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/RDC.F.xlsx
+++ b/RDC.F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1977C7D-D02C-4EFC-8ABC-02C02A29CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D8CF5F-3888-49AD-87E4-B4723FB0FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{5523CAF6-C60C-4F2C-8205-704482A319E3}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>78.3</v>
+        <v>73.849999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>1574.7186267</v>
+        <v>1485.2231236499999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>1708.7506267000001</v>
+        <v>1619.2551236500001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/RDC.F.xlsx
+++ b/RDC.F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D8CF5F-3888-49AD-87E4-B4723FB0FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4FC3B2-2A44-4551-BDB3-971607CA2B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{5523CAF6-C60C-4F2C-8205-704482A319E3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>Redcare Pharmacy</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Non Rx Growth</t>
+  </si>
+  <si>
+    <t>IR</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DD792-8C03-419B-ABE3-CBCAE966C8BA}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -1029,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>73.849999999999994</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1044,35 +1047,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>1485.2231236499999</v>
+        <v>1766.9831231400001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,13 +1071,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="12"/>
+      <c r="B6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1104,25 +1093,44 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>1619.2551236500001</v>
-      </c>
+        <v>1901.0151231400002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="I9" s="2" t="s">
         <v>103</v>
       </c>
@@ -1130,22 +1138,14 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>108</v>
+      <c r="B12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>110</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>100</v>
@@ -1166,8 +1166,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>106</v>
+      <c r="B14" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>111</v>
@@ -1178,41 +1178,55 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{0009180C-2963-4DEF-91EE-20DBC81FA4ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
